--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030591D-F81E-4CCF-B51B-8391DBF5940F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B8FF8-E755-4A5F-B55C-BF3E939DB9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -2045,6 +2045,26 @@
         <charset val="134"/>
       </rPr>
       <t>bcd1234</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableUpdateDefaultPwd</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rue</t>
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2346,7 +2366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2402,6 +2422,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2417,21 +2452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2800,11 +2821,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -2813,21 +2834,21 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2938,11 +2959,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="18" t="s">
@@ -2980,19 +3001,19 @@
       <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="21" t="s">
@@ -3017,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3028,7 +3049,7 @@
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="21.109375" customWidth="1"/>
   </cols>
@@ -3059,71 +3080,82 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36">
+      <c r="A7" s="31">
         <v>44039</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="33" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B8FF8-E755-4A5F-B55C-BF3E939DB9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BA0309-417C-45F8-9B00-91E7D8335BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2049,23 +2049,23 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>enableUpdateDefaultPwd</t>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rue</t>
+    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rue</t>
-    </r>
+    <t>forceModifyPassword</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2437,6 +2437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2452,7 +2453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2821,11 +2821,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -2834,21 +2834,21 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2959,11 +2959,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="18" t="s">
@@ -3001,19 +3001,19 @@
       <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="21" t="s">
@@ -3041,7 +3041,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3152,10 +3152,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BA0309-417C-45F8-9B00-91E7D8335BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5EB71-CA4D-4737-8B70-3692ABD78ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <r>
       <rPr>
@@ -2046,26 +2046,6 @@
       </rPr>
       <t>bcd1234</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rue</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>forceModifyPassword</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2366,7 +2346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2437,7 +2417,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2821,11 +2800,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -2834,21 +2813,21 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2959,11 +2938,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="18" t="s">
@@ -3001,19 +2980,19 @@
       <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="21" t="s">
@@ -3038,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3147,17 +3126,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="E11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB5EB71-CA4D-4737-8B70-3692ABD78ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0562FD9F-2970-4602-B9C6-6403C2F96E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -2046,6 +2046,26 @@
       </rPr>
       <t>bcd1234</t>
     </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCleanEmailRecord</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCleanEmailRecordInterval</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCleanWebhookRecord</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCleanWebhookRecordInterval</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2346,7 +2366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2416,6 +2436,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2780,54 +2806,54 @@
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="39" t="s">
+    <row r="4" spans="1:8">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2844,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2864,7 +2890,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -2878,7 +2904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
@@ -2889,7 +2915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2921,7 +2947,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
@@ -2938,13 +2964,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
@@ -2952,7 +2978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
@@ -2960,7 +2986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="18" t="s">
         <v>35</v>
       </c>
@@ -2968,7 +2994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
@@ -2980,21 +3006,21 @@
       <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="21" t="s">
         <v>43</v>
       </c>
@@ -3017,20 +3043,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3126,6 +3152,50 @@
         <v>60</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="37">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="37">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\iam\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0562FD9F-2970-4602-B9C6-6403C2F96E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A949C3-7E5C-4726-BADB-D022F5784B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -2066,6 +2066,23 @@
   </si>
   <si>
     <t>autoCleanWebhookRecordInterval</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCleanSagaInstance</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCleanSagaInstanceInterval</t>
+  </si>
+  <si>
+    <t>retainFailedSagaInstance</t>
+  </si>
+  <si>
+    <t>TRUE</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2073,7 +2090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2227,6 +2244,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2366,7 +2389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2458,6 +2481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2806,21 +2833,21 @@
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2835,7 +2862,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -2849,7 +2876,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
@@ -2870,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2890,7 +2917,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -2904,7 +2931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2947,7 +2974,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
@@ -2970,7 +2997,7 @@
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
@@ -2978,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
@@ -2986,7 +3013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="18" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +3021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
@@ -3020,7 +3047,7 @@
       </c>
       <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="21" t="s">
         <v>43</v>
       </c>
@@ -3043,20 +3070,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.08203125" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3196,6 +3223,39 @@
         <v>180</v>
       </c>
     </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="32">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\iam\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A949C3-7E5C-4726-BADB-D022F5784B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <r>
       <rPr>
@@ -2084,12 +2083,19 @@
   <si>
     <t>TRUE</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>themeColor</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5365EA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25">
     <font>
       <sz val="12"/>
@@ -2466,6 +2472,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2481,14 +2491,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2828,59 +2834,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="41" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2923,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2974,7 +2980,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
@@ -2991,13 +2997,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="18" t="s">
         <v>35</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="18" t="s">
         <v>37</v>
       </c>
@@ -3033,21 +3039,21 @@
       <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="21" t="s">
         <v>43</v>
       </c>
@@ -3069,21 +3075,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3227,10 +3233,10 @@
       <c r="E15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="39" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3238,7 +3244,7 @@
       <c r="E16" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="32">
@@ -3249,11 +3255,22 @@
       <c r="E17" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="39" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -3079,7 +3079,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3167,7 +3167,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="32">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,14 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1998,41 +1887,40 @@
     <t>hzero</t>
   </si>
   <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>iam_sys_setting</t>
+  </si>
+  <si>
     <t>*id</t>
   </si>
   <si>
+    <t>#SETTING_KEY</t>
+  </si>
+  <si>
+    <t>SETTING_VALUE</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
-    <t>系统配置</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam_sys_setting</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SETTING_KEY</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETTING_VALUE</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>minPasswordLength</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>maxPasswordLength</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>defaultPassword</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>a</t>
     </r>
     <r>
@@ -2040,39 +1928,28 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>bcd1234</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>autoCleanEmailRecord</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>autoCleanEmailRecordInterval</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>autoCleanWebhookRecord</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>autoCleanWebhookRecordInterval</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>autoCleanSagaInstance</t>
   </si>
   <si>
     <t>FALSE</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>autoCleanSagaInstanceInterval</t>
@@ -2082,21 +1959,31 @@
   </si>
   <si>
     <t>TRUE</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>themeColor</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>#5365EA</t>
+  </si>
+  <si>
+    <t>defaultLanguage</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2107,25 +1994,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2142,12 +2035,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2167,8 +2054,159 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2186,14 +2224,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2207,21 +2237,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2230,34 +2251,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2288,8 +2283,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2301,28 +2482,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2347,12 +2512,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2361,13 +2535,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2382,6 +2554,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2390,17 +2571,281 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2409,94 +2854,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2569,9 +3036,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2829,64 +3293,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="15" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="C1" s="41" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="5:5">
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="40" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="43" t="s">
+    <row r="4" spans="3:7">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -2897,202 +3363,203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="13" t="s">
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="15" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="11" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="27"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="27"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="16" t="s">
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="18" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="20" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="12" t="s">
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="21" t="s">
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="43" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" customWidth="1"/>
+    <col min="2" max="2" width="8.41666666666667" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.08203125" customWidth="1"/>
+    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3106,7 +3573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3118,164 +3585,175 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31">
+      <c r="A7" s="5">
         <v>44039</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="F7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="33" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="E11" s="36" t="s">
+    <row r="11" spans="5:7">
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="37" t="b">
+      <c r="G12" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="E12" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="37">
+    <row r="14" spans="5:7">
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="10">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="E13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="37" t="b">
-        <v>0</v>
+    <row r="15" spans="5:7">
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="E14" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="37">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="39" t="s">
+    <row r="16" spans="5:7">
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="32">
+      <c r="G16" s="6">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="38" t="s">
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
         <v>71</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
         <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22068" windowHeight="10020" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21923" windowHeight="10020" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -1971,6 +1971,63 @@
   </si>
   <si>
     <t>zh_CN</t>
+  </si>
+  <si>
+    <t>loginLogo</t>
+  </si>
+  <si>
+    <t>https://file.choerodon.com.cn/static/choerodon_logo.svg</t>
+  </si>
+  <si>
+    <t>loginPage</t>
+  </si>
+  <si>
+    <t>https://file.choerodon.com.cn/static/login_page.svg</t>
+  </si>
+  <si>
+    <t>loginTitle</t>
+  </si>
+  <si>
+    <t>登录猪齿鱼</t>
+  </si>
+  <si>
+    <t>loginCopyRight</t>
+  </si>
+  <si>
+    <t>Copyright © The choerodon Author®. All rights reserved.</t>
+  </si>
+  <si>
+    <t>loginBeian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>loginSlogan</t>
+  </si>
+  <si>
+    <t>传递体系化方法论，提供协作、测试、DevOps及容器工具，让团队效能提升更快更稳更简单</t>
+  </si>
+  <si>
+    <t>loginPhone</t>
+  </si>
+  <si>
+    <t>400-168-4263</t>
+  </si>
+  <si>
+    <t>loginEmail</t>
+  </si>
+  <si>
+    <t>zhuchiyu@vip.hand-china.com</t>
+  </si>
+  <si>
+    <t>loginWay</t>
+  </si>
+  <si>
+    <t>account,phone</t>
+  </si>
+  <si>
+    <t>loginLanguage</t>
   </si>
 </sst>
 </file>
@@ -1978,10 +2035,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2021,6 +2078,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -2058,6 +2123,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -2073,29 +2182,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2103,15 +2197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2125,26 +2211,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2180,23 +2251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2285,7 +2342,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2297,7 +2390,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2309,31 +2438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2351,54 +2474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2411,19 +2486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2441,31 +2504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,6 +2629,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2583,6 +2649,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2622,15 +2697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2660,165 +2726,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2846,6 +2903,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2854,44 +2912,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2904,7 +2962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3307,10 +3365,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="15" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="16" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -3324,79 +3382,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3404,56 +3462,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3463,64 +3521,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="44" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3543,10 +3601,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -3751,7 +3809,122 @@
         <v>73</v>
       </c>
     </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G20" r:id="rId1" display="https://file.choerodon.com.cn/static/choerodon_logo.svg"/>
+    <hyperlink ref="G21" r:id="rId2" display="https://file.choerodon.com.cn/static/login_page.svg"/>
+    <hyperlink ref="G27" r:id="rId3" display="zhuchiyu@vip.hand-china.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-sys-setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21923" windowHeight="10020" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -1899,7 +1899,10 @@
     <t>#SETTING_KEY</t>
   </si>
   <si>
-    <t>SETTING_VALUE</t>
+    <t>SETTING_VALUE:zh_CN</t>
+  </si>
+  <si>
+    <t>SETTING_VALUE:en_US</t>
   </si>
   <si>
     <t>*</t>
@@ -1914,24 +1917,7 @@
     <t>defaultPassword</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>bcd1234</t>
-    </r>
+    <t>abcd1234</t>
   </si>
   <si>
     <t>autoCleanEmailRecord</t>
@@ -1973,6 +1959,9 @@
     <t>zh_CN</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>loginLogo</t>
   </si>
   <si>
@@ -1991,10 +1980,13 @@
     <t>登录猪齿鱼</t>
   </si>
   <si>
+    <t>Log in to Choerodon</t>
+  </si>
+  <si>
     <t>loginCopyRight</t>
   </si>
   <si>
-    <t>Copyright © The choerodon Author®. All rights reserved.</t>
+    <t>Copyright © The choerodon Author®. All rights reserved.Copyright © The choerodon Author®. All rights reserved.</t>
   </si>
   <si>
     <t>loginBeian</t>
@@ -2003,10 +1995,16 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
     <t>loginSlogan</t>
   </si>
   <si>
     <t>传递体系化方法论，提供协作、测试、DevOps及容器工具，让团队效能提升更快更稳更简单</t>
+  </si>
+  <si>
+    <t>Deliver systematic methodology, provide collaboration, testing, DevOps and container tools, and make team efficiency improvement faster, more stable and simpler</t>
   </si>
   <si>
     <t>loginPhone</t>
@@ -2035,10 +2033,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2123,26 +2121,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2156,19 +2138,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2181,23 +2156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2212,22 +2180,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2236,16 +2188,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2259,8 +2224,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2342,150 +2340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2498,7 +2352,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,7 +2484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2522,7 +2496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2629,15 +2627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2656,18 +2645,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2691,8 +2669,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2712,170 +2714,166 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2904,6 +2902,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3365,10 +3364,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="16" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="16" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="17" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -3382,79 +3381,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3462,56 +3461,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3521,64 +3520,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3601,19 +3600,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="8.41666666666667" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="40.25" customWidth="1"/>
+    <col min="7" max="7" width="105.166666666667" customWidth="1"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
     <col min="9" max="9" width="21.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3642,7 +3642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>44039</v>
       </c>
@@ -3664,266 +3664,338 @@
       <c r="G7" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8">
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="5:7">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="10">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="5:7">
+      <c r="H12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="5:7">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="10">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="5:7">
+      <c r="H14" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
+        <v>67</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="5:7">
+      <c r="H16" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
+        <v>70</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
       <c r="E18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
       <c r="E20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="H29" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" display="https://file.choerodon.com.cn/static/choerodon_logo.svg"/>
-    <hyperlink ref="G21" r:id="rId2" display="https://file.choerodon.com.cn/static/login_page.svg"/>
-    <hyperlink ref="G27" r:id="rId3" display="zhuchiyu@vip.hand-china.com"/>
+    <hyperlink ref="G20" r:id="rId1" display="https://file.choerodon.com.cn/static/choerodon_logo.svg" tooltip="https://file.choerodon.com.cn/static/choerodon_logo.svg"/>
+    <hyperlink ref="G21" r:id="rId2" display="https://file.choerodon.com.cn/static/login_page.svg" tooltip="https://file.choerodon.com.cn/static/login_page.svg"/>
+    <hyperlink ref="G27" r:id="rId3" display="zhuchiyu@vip.hand-china.com" tooltip="mailto:zhuchiyu@vip.hand-china.com"/>
+    <hyperlink ref="H20" r:id="rId1" display="https://file.choerodon.com.cn/static/choerodon_logo.svg"/>
+    <hyperlink ref="H21" r:id="rId2" display="https://file.choerodon.com.cn/static/login_page.svg"/>
+    <hyperlink ref="H27" r:id="rId3" display="zhuchiyu@vip.hand-china.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
